--- a/SE-4381.0U1-PM/Grades/Grades.xlsx
+++ b/SE-4381.0U1-PM/Grades/Grades.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989703A7-2823-48BC-AB56-6F002B35143A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -62,8 +70,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +89,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -232,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -294,7 +308,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -395,6 +418,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -430,6 +470,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -605,11 +662,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D14:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,8 +676,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="21"/>
-      <c r="B1" s="21"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -701,7 +758,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -736,7 +793,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>4.5999999999999999E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -749,7 +806,7 @@
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.81099999999999994</v>
+        <v>0.80499999999999994</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -763,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="18">
+      <c r="F8" s="23">
         <v>0</v>
       </c>
       <c r="G8" s="10">
@@ -786,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="19">
+      <c r="F9" s="24">
         <v>0.7</v>
       </c>
       <c r="G9" s="12"/>
@@ -805,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="19">
+      <c r="F10" s="24">
         <v>0</v>
       </c>
       <c r="G10" s="12"/>
@@ -824,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="19">
+      <c r="F11" s="24">
         <v>1</v>
       </c>
       <c r="G11" s="12"/>
@@ -839,11 +896,11 @@
         <v>5</v>
       </c>
       <c r="C12" s="19"/>
-      <c r="D12" s="17">
+      <c r="D12" s="21">
         <v>1</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="19">
+      <c r="F12" s="24">
         <v>0.6</v>
       </c>
       <c r="G12" s="12"/>
@@ -858,11 +915,13 @@
         <v>6</v>
       </c>
       <c r="C13" s="19"/>
-      <c r="D13" s="17">
+      <c r="D13" s="21">
         <v>1</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="19"/>
+      <c r="F13" s="24">
+        <v>0</v>
+      </c>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="2"/>
@@ -879,7 +938,9 @@
         <v>1</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+      <c r="F14" s="24">
+        <v>0.5</v>
+      </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="2"/>
@@ -1022,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1034,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4381.0U1-PM/Grades/Grades.xlsx
+++ b/SE-4381.0U1-PM/Grades/Grades.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{989703A7-2823-48BC-AB56-6F002B35143A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4230" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -70,7 +69,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,13 +310,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -418,23 +417,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -470,23 +452,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -662,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D14:D15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -676,8 +641,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
+      <c r="A1" s="24"/>
+      <c r="B1" s="24"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -750,7 +715,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -758,7 +723,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -785,7 +750,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
+        <v>0.22799999999999998</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -793,7 +758,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>0.04</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -801,12 +766,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.27</v>
+        <v>0.24</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.80499999999999994</v>
+        <v>0.78299999999999992</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -820,14 +785,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="23">
+      <c r="F8" s="22">
         <v>0</v>
       </c>
       <c r="G8" s="10">
         <v>0.9</v>
       </c>
       <c r="H8" s="10">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -843,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>0.7</v>
       </c>
       <c r="G9" s="12"/>
@@ -862,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>0</v>
       </c>
       <c r="G10" s="12"/>
@@ -881,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>1</v>
       </c>
       <c r="G11" s="12"/>
@@ -897,10 +862,10 @@
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="21">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>0.6</v>
       </c>
       <c r="G12" s="12"/>
@@ -919,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
@@ -938,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>0.5</v>
       </c>
       <c r="G14" s="12"/>
@@ -954,10 +919,12 @@
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="11">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
+      <c r="F15" s="12">
+        <v>0.8</v>
+      </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12"/>
       <c r="I15" s="2"/>
@@ -970,7 +937,9 @@
         <v>9</v>
       </c>
       <c r="C16" s="19"/>
-      <c r="D16" s="11"/>
+      <c r="D16" s="11">
+        <v>1</v>
+      </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -985,7 +954,9 @@
         <v>10</v>
       </c>
       <c r="C17" s="19"/>
-      <c r="D17" s="11"/>
+      <c r="D17" s="11">
+        <v>0.95</v>
+      </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
@@ -1083,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1095,7 +1066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4381.0U1-PM/Grades/Grades.xlsx
+++ b/SE-4381.0U1-PM/Grades/Grades.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kim\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5066795-991B-4254-8964-76CFE59E6B26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840"/>
+    <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -69,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,12 +286,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -317,6 +305,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -417,6 +408,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -452,6 +460,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -627,11 +652,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,8 +666,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="24"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="22"/>
+      <c r="B1" s="22"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -715,7 +740,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -744,13 +769,13 @@
       <c r="B7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="18">
         <f t="shared" ref="C7:H7" si="1">IF(C6&lt;&gt;0,IF(C5&lt;&gt;0,(SUM(C8:C21)/C6)*C5,0), 0)</f>
         <v>0</v>
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.22799999999999998</v>
+        <v>0.23874999999999996</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -766,12 +791,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.24</v>
+        <v>0.22499999999999998</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.78299999999999992</v>
+        <v>0.77874999999999994</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -780,19 +805,19 @@
       <c r="B8" s="3">
         <v>1</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="16">
+      <c r="C8" s="16"/>
+      <c r="D8" s="23">
         <v>1</v>
       </c>
       <c r="E8" s="10"/>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
       <c r="G8" s="10">
         <v>0.9</v>
       </c>
       <c r="H8" s="10">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -803,12 +828,12 @@
       <c r="B9" s="6">
         <v>2</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="17">
+      <c r="C9" s="17"/>
+      <c r="D9" s="19">
         <v>1</v>
       </c>
       <c r="E9" s="12"/>
-      <c r="F9" s="23">
+      <c r="F9" s="21">
         <v>0.7</v>
       </c>
       <c r="G9" s="12"/>
@@ -822,12 +847,12 @@
       <c r="B10" s="6">
         <v>3</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="17">
+      <c r="C10" s="17"/>
+      <c r="D10" s="19">
         <v>0</v>
       </c>
       <c r="E10" s="12"/>
-      <c r="F10" s="23">
+      <c r="F10" s="21">
         <v>0</v>
       </c>
       <c r="G10" s="12"/>
@@ -841,12 +866,12 @@
       <c r="B11" s="6">
         <v>4</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="17">
+      <c r="C11" s="17"/>
+      <c r="D11" s="19">
         <v>0</v>
       </c>
       <c r="E11" s="12"/>
-      <c r="F11" s="23">
+      <c r="F11" s="21">
         <v>1</v>
       </c>
       <c r="G11" s="12"/>
@@ -860,12 +885,12 @@
       <c r="B12" s="6">
         <v>5</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21">
+      <c r="C12" s="17"/>
+      <c r="D12" s="19">
         <v>0.7</v>
       </c>
       <c r="E12" s="12"/>
-      <c r="F12" s="23">
+      <c r="F12" s="21">
         <v>0.6</v>
       </c>
       <c r="G12" s="12"/>
@@ -879,12 +904,12 @@
       <c r="B13" s="6">
         <v>6</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21">
+      <c r="C13" s="17"/>
+      <c r="D13" s="19">
         <v>1</v>
       </c>
       <c r="E13" s="12"/>
-      <c r="F13" s="23">
+      <c r="F13" s="21">
         <v>0</v>
       </c>
       <c r="G13" s="12"/>
@@ -898,12 +923,12 @@
       <c r="B14" s="6">
         <v>7</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11">
+      <c r="C14" s="17"/>
+      <c r="D14" s="19">
         <v>1</v>
       </c>
       <c r="E14" s="12"/>
-      <c r="F14" s="23">
+      <c r="F14" s="21">
         <v>0.5</v>
       </c>
       <c r="G14" s="12"/>
@@ -917,9 +942,9 @@
       <c r="B15" s="6">
         <v>8</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="11">
-        <v>0.95</v>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19">
+        <v>1</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12">
@@ -936,9 +961,9 @@
       <c r="B16" s="6">
         <v>9</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11">
-        <v>1</v>
+      <c r="C16" s="17"/>
+      <c r="D16" s="19">
+        <v>0.95</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
@@ -953,9 +978,9 @@
       <c r="B17" s="6">
         <v>10</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="11">
-        <v>0.95</v>
+      <c r="C17" s="17"/>
+      <c r="D17" s="19">
+        <v>1</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -971,7 +996,9 @@
         <v>11</v>
       </c>
       <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
+      <c r="D18" s="19">
+        <v>0.95</v>
+      </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -986,7 +1013,9 @@
         <v>12</v>
       </c>
       <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
+      <c r="D19" s="19">
+        <v>0.95</v>
+      </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
@@ -1054,7 +1083,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1066,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/SE-4381.0U1-PM/Grades/Grades.xlsx
+++ b/SE-4381.0U1-PM/Grades/Grades.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Desktop\Screen-Cleaner\GitHub\UTDSummer2018\SE-4381.0U1-PM\Grades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5066795-991B-4254-8964-76CFE59E6B26}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0C3BAF-16F5-4EF4-BE01-032D304BBEEB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="4830" windowWidth="28755" windowHeight="12840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -304,10 +304,10 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -656,7 +656,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,8 +666,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="D6" s="8">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
@@ -748,7 +748,7 @@
       </c>
       <c r="F6" s="8">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" s="8">
         <f t="shared" si="0"/>
@@ -775,7 +775,7 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="1"/>
-        <v>0.23874999999999996</v>
+        <v>0.26045454545454538</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="1"/>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>4.4999999999999998E-2</v>
+        <v>5.1428571428571428E-2</v>
       </c>
       <c r="G7" s="9">
         <f t="shared" si="1"/>
@@ -791,12 +791,12 @@
       </c>
       <c r="H7" s="9">
         <f t="shared" si="1"/>
-        <v>0.22499999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7">
         <f>SUM(C7:H7)</f>
-        <v>0.77874999999999994</v>
+        <v>0.79188311688311686</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
@@ -806,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="16"/>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <v>1</v>
       </c>
       <c r="E8" s="10"/>
@@ -817,7 +817,7 @@
         <v>0.9</v>
       </c>
       <c r="H8" s="10">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -848,13 +848,9 @@
         <v>3</v>
       </c>
       <c r="C10" s="17"/>
-      <c r="D10" s="19">
-        <v>0</v>
-      </c>
+      <c r="D10" s="19"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
+      <c r="F10" s="21"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="2"/>
